--- a/辅助总表/战斗配置辅助表/世界boss战斗配置辅助表.xlsx
+++ b/辅助总表/战斗配置辅助表/世界boss战斗配置辅助表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="480" windowWidth="38400" windowHeight="21140" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="30820" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="怪物属性偏向" sheetId="15" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="266">
   <si>
     <t>ID</t>
   </si>
@@ -1447,9 +1447,6 @@
   </si>
   <si>
     <t>狂暴莉莉丝</t>
-  </si>
-  <si>
-    <t>狂暴莉莉丝</t>
     <rPh sb="0" eb="1">
       <t>kuang'bao</t>
     </rPh>
@@ -1693,6 +1690,139 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>deng'j</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界boss莉莉丝</t>
+    <rPh sb="0" eb="1">
+      <t>shi'jie</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>l'l's</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>超治疗小花精</t>
+    <rPh sb="0" eb="1">
+      <t>chao</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>zhi'liao</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>xiao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>hua</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jing'l</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒躯蘑菇</t>
+    <rPh sb="0" eb="1">
+      <t>du</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>qu'ti</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>mo'gu</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒躯甲虫精</t>
+    <rPh sb="0" eb="1">
+      <t>du</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>qu'ti</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jia'chong</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jing</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒躯树妖</t>
+    <rPh sb="0" eb="1">
+      <t>du</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>qu'ti</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shu'yao</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒躯藤蔓怪</t>
+    <rPh sb="0" eb="1">
+      <t>du</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>qu'ti</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>teng'man</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>guai</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>反击黄蜂怪</t>
+    <rPh sb="0" eb="1">
+      <t>fan'ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>huang'feng</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>guai</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>反击甲虫精</t>
+    <rPh sb="0" eb="1">
+      <t>fan'j</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jia'chong</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jing</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂暴莉莉丝</t>
+    <rPh sb="0" eb="1">
+      <t>kuang'b</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>l'l's</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界boss莉莉丝</t>
+    <rPh sb="0" eb="1">
+      <t>shi'j</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>l'l's</t>
     </rPh>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -2143,7 +2273,7 @@
   <dimension ref="A1:Z134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -2215,7 +2345,7 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.15">
       <c r="D3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E3" t="s">
         <v>76</v>
@@ -2289,16 +2419,16 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.15">
       <c r="D5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H5" s="6">
         <v>100</v>
@@ -2427,10 +2557,10 @@
         <v>4</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H8" s="6">
         <v>100</v>
@@ -2471,10 +2601,10 @@
         <v>5</v>
       </c>
       <c r="F9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H9" s="6">
         <v>90</v>
@@ -2515,10 +2645,10 @@
         <v>6</v>
       </c>
       <c r="F10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H10" s="6">
         <v>95</v>
@@ -2558,10 +2688,10 @@
         <v>7</v>
       </c>
       <c r="F11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H11" s="6">
         <v>120</v>
@@ -2601,10 +2731,10 @@
         <v>8</v>
       </c>
       <c r="F12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H12" s="6">
         <v>70</v>
@@ -2644,10 +2774,10 @@
         <v>9</v>
       </c>
       <c r="F13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H13" s="6">
         <v>95</v>
@@ -2682,25 +2812,473 @@
         <v>m1006</v>
       </c>
     </row>
-    <row r="14" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="17" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="18" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="19" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="20" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="21" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="22" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="23" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="24" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="25" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="26" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="27" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="28" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="29" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="30" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="31" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="32" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E14">
+        <v>10</v>
+      </c>
+      <c r="F14" t="s">
+        <v>257</v>
+      </c>
+      <c r="G14" t="s">
+        <v>214</v>
+      </c>
+      <c r="H14" s="6">
+        <v>100</v>
+      </c>
+      <c r="I14" s="6">
+        <v>100</v>
+      </c>
+      <c r="J14">
+        <f t="shared" ref="J14:J29" si="5">($J$4/(H14*$B$1-$I$4*$B$2))*($H$4*$B$1-I14*$B$2)</f>
+        <v>160</v>
+      </c>
+      <c r="K14">
+        <v>20010001</v>
+      </c>
+      <c r="L14">
+        <v>20010002</v>
+      </c>
+      <c r="M14" t="s">
+        <v>181</v>
+      </c>
+      <c r="N14" t="s">
+        <v>181</v>
+      </c>
+      <c r="O14" t="s">
+        <v>181</v>
+      </c>
+      <c r="P14" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q14" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(G14,映射表!Y:Z,2,FALSE),"")</f>
+        <v>m1007</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E15">
+        <v>11</v>
+      </c>
+      <c r="F15" t="s">
+        <v>258</v>
+      </c>
+      <c r="G15" t="s">
+        <v>215</v>
+      </c>
+      <c r="H15" s="6">
+        <v>100</v>
+      </c>
+      <c r="I15" s="6">
+        <v>100</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="5"/>
+        <v>160</v>
+      </c>
+      <c r="K15">
+        <v>20011001</v>
+      </c>
+      <c r="L15">
+        <v>20011002</v>
+      </c>
+      <c r="M15" t="s">
+        <v>181</v>
+      </c>
+      <c r="N15">
+        <v>200003</v>
+      </c>
+      <c r="O15" t="s">
+        <v>181</v>
+      </c>
+      <c r="P15" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q15" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(G15,映射表!Y:Z,2,FALSE),"")</f>
+        <v>m1000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E16">
+        <v>12</v>
+      </c>
+      <c r="F16" t="s">
+        <v>259</v>
+      </c>
+      <c r="G16" t="s">
+        <v>210</v>
+      </c>
+      <c r="H16" s="6">
+        <v>100</v>
+      </c>
+      <c r="I16" s="6">
+        <v>100</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="5"/>
+        <v>160</v>
+      </c>
+      <c r="K16">
+        <v>20012001</v>
+      </c>
+      <c r="L16" t="s">
+        <v>181</v>
+      </c>
+      <c r="M16" t="s">
+        <v>181</v>
+      </c>
+      <c r="N16">
+        <v>200003</v>
+      </c>
+      <c r="O16" t="s">
+        <v>181</v>
+      </c>
+      <c r="P16" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q16" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(G16,映射表!Y:Z,2,FALSE),"")</f>
+        <v>m1002</v>
+      </c>
+    </row>
+    <row r="17" spans="5:17" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E17">
+        <v>13</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="H17" s="6">
+        <v>100</v>
+      </c>
+      <c r="I17" s="6">
+        <v>100</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="5"/>
+        <v>160</v>
+      </c>
+      <c r="K17">
+        <v>20013001</v>
+      </c>
+      <c r="L17" t="s">
+        <v>181</v>
+      </c>
+      <c r="M17" t="s">
+        <v>181</v>
+      </c>
+      <c r="N17">
+        <v>200003</v>
+      </c>
+      <c r="O17" t="s">
+        <v>181</v>
+      </c>
+      <c r="P17" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q17" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(G17,映射表!Y:Z,2,FALSE),"")</f>
+        <v>m10000</v>
+      </c>
+    </row>
+    <row r="18" spans="5:17" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E18">
+        <v>14</v>
+      </c>
+      <c r="F18" t="s">
+        <v>261</v>
+      </c>
+      <c r="G18" t="s">
+        <v>217</v>
+      </c>
+      <c r="H18" s="6">
+        <v>100</v>
+      </c>
+      <c r="I18" s="6">
+        <v>100</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="5"/>
+        <v>160</v>
+      </c>
+      <c r="K18">
+        <v>20014001</v>
+      </c>
+      <c r="L18">
+        <v>20014002</v>
+      </c>
+      <c r="M18" t="s">
+        <v>181</v>
+      </c>
+      <c r="N18">
+        <v>200003</v>
+      </c>
+      <c r="O18" t="s">
+        <v>181</v>
+      </c>
+      <c r="P18" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q18" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(G18,映射表!Y:Z,2,FALSE),"")</f>
+        <v>m1006</v>
+      </c>
+    </row>
+    <row r="19" spans="5:17" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E19">
+        <v>15</v>
+      </c>
+      <c r="F19" t="s">
+        <v>262</v>
+      </c>
+      <c r="G19" t="s">
+        <v>216</v>
+      </c>
+      <c r="H19" s="6">
+        <v>100</v>
+      </c>
+      <c r="I19" s="6">
+        <v>100</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="5"/>
+        <v>160</v>
+      </c>
+      <c r="K19">
+        <v>20015001</v>
+      </c>
+      <c r="L19">
+        <v>20015002</v>
+      </c>
+      <c r="M19" t="s">
+        <v>181</v>
+      </c>
+      <c r="N19">
+        <v>200002</v>
+      </c>
+      <c r="O19" t="s">
+        <v>181</v>
+      </c>
+      <c r="P19" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q19" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(G19,映射表!Y:Z,2,FALSE),"")</f>
+        <v>m1001</v>
+      </c>
+    </row>
+    <row r="20" spans="5:17" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E20">
+        <v>16</v>
+      </c>
+      <c r="F20" t="s">
+        <v>263</v>
+      </c>
+      <c r="G20" t="s">
+        <v>210</v>
+      </c>
+      <c r="H20" s="6">
+        <v>100</v>
+      </c>
+      <c r="I20" s="6">
+        <v>100</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="5"/>
+        <v>160</v>
+      </c>
+      <c r="K20">
+        <v>20016001</v>
+      </c>
+      <c r="L20" t="s">
+        <v>181</v>
+      </c>
+      <c r="M20" t="s">
+        <v>181</v>
+      </c>
+      <c r="N20">
+        <v>200002</v>
+      </c>
+      <c r="O20" t="s">
+        <v>181</v>
+      </c>
+      <c r="P20" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q20" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(G20,映射表!Y:Z,2,FALSE),"")</f>
+        <v>m1002</v>
+      </c>
+    </row>
+    <row r="21" spans="5:17" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E21">
+        <v>17</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="G21" t="s">
+        <v>264</v>
+      </c>
+      <c r="H21" s="6">
+        <v>100</v>
+      </c>
+      <c r="I21" s="6">
+        <v>100</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="5"/>
+        <v>160</v>
+      </c>
+      <c r="K21">
+        <v>20017001</v>
+      </c>
+      <c r="L21" t="s">
+        <v>181</v>
+      </c>
+      <c r="M21" t="s">
+        <v>181</v>
+      </c>
+      <c r="N21">
+        <v>200004</v>
+      </c>
+      <c r="O21" t="s">
+        <v>181</v>
+      </c>
+      <c r="P21" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q21" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(G21,映射表!Y:Z,2,FALSE),"")</f>
+        <v>m1003</v>
+      </c>
+    </row>
+    <row r="22" spans="5:17" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22"/>
+      <c r="N22"/>
+      <c r="O22"/>
+      <c r="P22"/>
+      <c r="Q22"/>
+    </row>
+    <row r="23" spans="5:17" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="M23"/>
+      <c r="N23"/>
+      <c r="O23"/>
+      <c r="P23"/>
+      <c r="Q23"/>
+    </row>
+    <row r="24" spans="5:17" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24"/>
+      <c r="M24"/>
+      <c r="N24"/>
+      <c r="O24"/>
+      <c r="P24"/>
+      <c r="Q24"/>
+    </row>
+    <row r="25" spans="5:17" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25"/>
+      <c r="K25"/>
+      <c r="L25"/>
+      <c r="M25"/>
+      <c r="N25"/>
+      <c r="O25"/>
+      <c r="P25"/>
+      <c r="Q25"/>
+    </row>
+    <row r="26" spans="5:17" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26"/>
+      <c r="M26"/>
+      <c r="N26"/>
+      <c r="O26"/>
+      <c r="P26"/>
+      <c r="Q26"/>
+    </row>
+    <row r="27" spans="5:17" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27"/>
+      <c r="M27"/>
+      <c r="N27"/>
+      <c r="O27"/>
+      <c r="P27"/>
+      <c r="Q27"/>
+    </row>
+    <row r="28" spans="5:17" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28"/>
+      <c r="K28"/>
+      <c r="L28"/>
+      <c r="M28"/>
+      <c r="N28"/>
+      <c r="O28"/>
+      <c r="P28"/>
+      <c r="Q28"/>
+    </row>
+    <row r="29" spans="5:17" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29"/>
+      <c r="K29"/>
+      <c r="L29"/>
+      <c r="M29"/>
+      <c r="N29"/>
+      <c r="O29"/>
+      <c r="P29"/>
+      <c r="Q29"/>
+    </row>
+    <row r="30" spans="5:17" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="5:17" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="32" spans="5:17" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="33" spans="8:26" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="34" spans="8:26" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="35" spans="8:26" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -3976,10 +4554,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ3"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="R1" sqref="R1"/>
-      <selection pane="bottomLeft" activeCell="AH3" sqref="AH3"/>
+      <selection pane="bottomLeft" activeCell="AB6" sqref="AB6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -4059,7 +4637,7 @@
         <v>51</v>
       </c>
       <c r="R2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="S2" t="s">
         <v>144</v>
@@ -4156,7 +4734,7 @@
       </c>
       <c r="K3">
         <f>AC3</f>
-        <v>121</v>
+        <v>202</v>
       </c>
       <c r="L3">
         <f t="shared" ref="L3:N3" si="1">AD3</f>
@@ -4176,7 +4754,7 @@
       </c>
       <c r="P3" t="str">
         <f>U3</f>
-        <v>狂暴莉莉丝</v>
+        <v>世界boss莉莉丝</v>
       </c>
       <c r="R3">
         <v>1</v>
@@ -4188,7 +4766,7 @@
         <v>5</v>
       </c>
       <c r="U3" t="s">
-        <v>209</v>
+        <v>265</v>
       </c>
       <c r="V3">
         <v>1</v>
@@ -4197,7 +4775,7 @@
         <v>1</v>
       </c>
       <c r="X3" s="5">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="Y3" s="5">
         <v>1</v>
@@ -4214,7 +4792,7 @@
       </c>
       <c r="AC3" s="10">
         <f>INT(VLOOKUP($V3,映射表!$B:$C,2,FALSE)*VLOOKUP($U3,怪物属性偏向!$F:$J,3,FALSE)/100*X3*$AB3)</f>
-        <v>121</v>
+        <v>202</v>
       </c>
       <c r="AD3" s="10">
         <f>INT(VLOOKUP($V3,映射表!$B:$C,2,FALSE)*VLOOKUP($U3,怪物属性偏向!$F:$J,4,FALSE)/100*Y3*$AB3)</f>
@@ -4263,7 +4841,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
@@ -4788,7 +5366,7 @@
       </c>
       <c r="N4" s="8">
         <f>IF(VLOOKUP(VLOOKUP($A4,主线配置!$O:$P,2,FALSE),怪物属性偏向!$F:$P,怪物属性偏向!K$1-1,FALSE)=0,"",VLOOKUP(VLOOKUP($A4,主线配置!$O:$P,2,FALSE),怪物属性偏向!$F:$P,怪物属性偏向!K$1-1,FALSE))</f>
-        <v>20004001</v>
+        <v>20017001</v>
       </c>
       <c r="O4" s="8" t="str">
         <f>IF(VLOOKUP(VLOOKUP($A4,主线配置!$O:$P,2,FALSE),怪物属性偏向!$F:$P,怪物属性偏向!L$1-1,FALSE)=0,"",VLOOKUP(VLOOKUP($A4,主线配置!$O:$P,2,FALSE),怪物属性偏向!$F:$P,怪物属性偏向!L$1-1,FALSE))</f>
@@ -4798,9 +5376,9 @@
         <f>IF(VLOOKUP(VLOOKUP($A4,主线配置!$O:$P,2,FALSE),怪物属性偏向!$F:$P,怪物属性偏向!M$1-1,FALSE)=0,"",VLOOKUP(VLOOKUP($A4,主线配置!$O:$P,2,FALSE),怪物属性偏向!$F:$P,怪物属性偏向!M$1-1,FALSE))</f>
         <v/>
       </c>
-      <c r="Q4" s="8" t="str">
+      <c r="Q4" s="8">
         <f>IF(VLOOKUP(VLOOKUP($A4,主线配置!$O:$P,2,FALSE),怪物属性偏向!$F:$P,怪物属性偏向!N$1-1,FALSE)=0,"",VLOOKUP(VLOOKUP($A4,主线配置!$O:$P,2,FALSE),怪物属性偏向!$F:$P,怪物属性偏向!N$1-1,FALSE))</f>
-        <v/>
+        <v>200004</v>
       </c>
       <c r="R4" s="8" t="str">
         <f>IF(VLOOKUP(VLOOKUP($A4,主线配置!$O:$P,2,FALSE),怪物属性偏向!$F:$P,怪物属性偏向!O$1-1,FALSE)=0,"",VLOOKUP(VLOOKUP($A4,主线配置!$O:$P,2,FALSE),怪物属性偏向!$F:$P,怪物属性偏向!O$1-1,FALSE))</f>
@@ -5368,7 +5946,7 @@
   <dimension ref="A1:AA919"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="W5" sqref="W5"/>
+      <selection activeCell="A5" sqref="A5:XFD100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -5676,7 +6254,7 @@
         <v>71</v>
       </c>
       <c r="AA4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="5" spans="1:27" s="11" customFormat="1" x14ac:dyDescent="0.15">
@@ -5702,7 +6280,7 @@
       </c>
       <c r="G5" s="19">
         <f>INT(VLOOKUP(Z5,主线配置!R:AF,12,FALSE)/VLOOKUP(1,映射表!B:C,2,FALSE)*VLOOKUP(X5,映射表!B:C,2,FALSE))</f>
-        <v>121</v>
+        <v>202</v>
       </c>
       <c r="H5" s="19">
         <v>0</v>
@@ -5793,7 +6371,7 @@
       </c>
       <c r="G6" s="19">
         <f>INT(VLOOKUP(Z6,主线配置!R:AF,12,FALSE)/VLOOKUP(1,映射表!B:C,2,FALSE)*VLOOKUP(X6,映射表!B:C,2,FALSE))</f>
-        <v>134</v>
+        <v>224</v>
       </c>
       <c r="H6" s="19">
         <v>0</v>
@@ -5885,7 +6463,7 @@
       </c>
       <c r="G7" s="19">
         <f>INT(VLOOKUP(Z7,主线配置!R:AF,12,FALSE)/VLOOKUP(1,映射表!B:C,2,FALSE)*VLOOKUP(X7,映射表!B:C,2,FALSE))</f>
-        <v>147</v>
+        <v>246</v>
       </c>
       <c r="H7" s="19">
         <v>0</v>
@@ -5977,7 +6555,7 @@
       </c>
       <c r="G8" s="19">
         <f>INT(VLOOKUP(Z8,主线配置!R:AF,12,FALSE)/VLOOKUP(1,映射表!B:C,2,FALSE)*VLOOKUP(X8,映射表!B:C,2,FALSE))</f>
-        <v>160</v>
+        <v>268</v>
       </c>
       <c r="H8" s="19">
         <v>0</v>
@@ -6069,7 +6647,7 @@
       </c>
       <c r="G9" s="19">
         <f>INT(VLOOKUP(Z9,主线配置!R:AF,12,FALSE)/VLOOKUP(1,映射表!B:C,2,FALSE)*VLOOKUP(X9,映射表!B:C,2,FALSE))</f>
-        <v>173</v>
+        <v>290</v>
       </c>
       <c r="H9" s="19">
         <v>0</v>
@@ -6161,7 +6739,7 @@
       </c>
       <c r="G10" s="19">
         <f>INT(VLOOKUP(Z10,主线配置!R:AF,12,FALSE)/VLOOKUP(1,映射表!B:C,2,FALSE)*VLOOKUP(X10,映射表!B:C,2,FALSE))</f>
-        <v>186</v>
+        <v>312</v>
       </c>
       <c r="H10" s="19">
         <v>0</v>
@@ -6253,7 +6831,7 @@
       </c>
       <c r="G11" s="19">
         <f>INT(VLOOKUP(Z11,主线配置!R:AF,12,FALSE)/VLOOKUP(1,映射表!B:C,2,FALSE)*VLOOKUP(X11,映射表!B:C,2,FALSE))</f>
-        <v>200</v>
+        <v>334</v>
       </c>
       <c r="H11" s="19">
         <v>0</v>
@@ -6345,7 +6923,7 @@
       </c>
       <c r="G12" s="19">
         <f>INT(VLOOKUP(Z12,主线配置!R:AF,12,FALSE)/VLOOKUP(1,映射表!B:C,2,FALSE)*VLOOKUP(X12,映射表!B:C,2,FALSE))</f>
-        <v>213</v>
+        <v>356</v>
       </c>
       <c r="H12" s="19">
         <v>0</v>
@@ -6437,7 +7015,7 @@
       </c>
       <c r="G13" s="19">
         <f>INT(VLOOKUP(Z13,主线配置!R:AF,12,FALSE)/VLOOKUP(1,映射表!B:C,2,FALSE)*VLOOKUP(X13,映射表!B:C,2,FALSE))</f>
-        <v>226</v>
+        <v>378</v>
       </c>
       <c r="H13" s="19">
         <v>0</v>
@@ -6529,7 +7107,7 @@
       </c>
       <c r="G14" s="19">
         <f>INT(VLOOKUP(Z14,主线配置!R:AF,12,FALSE)/VLOOKUP(1,映射表!B:C,2,FALSE)*VLOOKUP(X14,映射表!B:C,2,FALSE))</f>
-        <v>239</v>
+        <v>400</v>
       </c>
       <c r="H14" s="19">
         <v>0</v>
@@ -6621,7 +7199,7 @@
       </c>
       <c r="G15" s="19">
         <f>INT(VLOOKUP(Z15,主线配置!R:AF,12,FALSE)/VLOOKUP(1,映射表!B:C,2,FALSE)*VLOOKUP(X15,映射表!B:C,2,FALSE))</f>
-        <v>261</v>
+        <v>436</v>
       </c>
       <c r="H15" s="19">
         <v>0</v>
@@ -6713,7 +7291,7 @@
       </c>
       <c r="G16" s="19">
         <f>INT(VLOOKUP(Z16,主线配置!R:AF,12,FALSE)/VLOOKUP(1,映射表!B:C,2,FALSE)*VLOOKUP(X16,映射表!B:C,2,FALSE))</f>
-        <v>282</v>
+        <v>472</v>
       </c>
       <c r="H16" s="19">
         <v>0</v>
@@ -6805,7 +7383,7 @@
       </c>
       <c r="G17" s="19">
         <f>INT(VLOOKUP(Z17,主线配置!R:AF,12,FALSE)/VLOOKUP(1,映射表!B:C,2,FALSE)*VLOOKUP(X17,映射表!B:C,2,FALSE))</f>
-        <v>304</v>
+        <v>508</v>
       </c>
       <c r="H17" s="19">
         <v>0</v>
@@ -6897,7 +7475,7 @@
       </c>
       <c r="G18" s="19">
         <f>INT(VLOOKUP(Z18,主线配置!R:AF,12,FALSE)/VLOOKUP(1,映射表!B:C,2,FALSE)*VLOOKUP(X18,映射表!B:C,2,FALSE))</f>
-        <v>325</v>
+        <v>544</v>
       </c>
       <c r="H18" s="19">
         <v>0</v>
@@ -6989,7 +7567,7 @@
       </c>
       <c r="G19" s="19">
         <f>INT(VLOOKUP(Z19,主线配置!R:AF,12,FALSE)/VLOOKUP(1,映射表!B:C,2,FALSE)*VLOOKUP(X19,映射表!B:C,2,FALSE))</f>
-        <v>347</v>
+        <v>580</v>
       </c>
       <c r="H19" s="19">
         <v>0</v>
@@ -7081,7 +7659,7 @@
       </c>
       <c r="G20" s="19">
         <f>INT(VLOOKUP(Z20,主线配置!R:AF,12,FALSE)/VLOOKUP(1,映射表!B:C,2,FALSE)*VLOOKUP(X20,映射表!B:C,2,FALSE))</f>
-        <v>368</v>
+        <v>616</v>
       </c>
       <c r="H20" s="19">
         <v>0</v>
@@ -7173,7 +7751,7 @@
       </c>
       <c r="G21" s="19">
         <f>INT(VLOOKUP(Z21,主线配置!R:AF,12,FALSE)/VLOOKUP(1,映射表!B:C,2,FALSE)*VLOOKUP(X21,映射表!B:C,2,FALSE))</f>
-        <v>390</v>
+        <v>652</v>
       </c>
       <c r="H21" s="19">
         <v>0</v>
@@ -7265,7 +7843,7 @@
       </c>
       <c r="G22" s="19">
         <f>INT(VLOOKUP(Z22,主线配置!R:AF,12,FALSE)/VLOOKUP(1,映射表!B:C,2,FALSE)*VLOOKUP(X22,映射表!B:C,2,FALSE))</f>
-        <v>412</v>
+        <v>688</v>
       </c>
       <c r="H22" s="19">
         <v>0</v>
@@ -7357,7 +7935,7 @@
       </c>
       <c r="G23" s="19">
         <f>INT(VLOOKUP(Z23,主线配置!R:AF,12,FALSE)/VLOOKUP(1,映射表!B:C,2,FALSE)*VLOOKUP(X23,映射表!B:C,2,FALSE))</f>
-        <v>433</v>
+        <v>724</v>
       </c>
       <c r="H23" s="19">
         <v>0</v>
@@ -7449,7 +8027,7 @@
       </c>
       <c r="G24" s="19">
         <f>INT(VLOOKUP(Z24,主线配置!R:AF,12,FALSE)/VLOOKUP(1,映射表!B:C,2,FALSE)*VLOOKUP(X24,映射表!B:C,2,FALSE))</f>
-        <v>473</v>
+        <v>790</v>
       </c>
       <c r="H24" s="19">
         <v>0</v>
@@ -7541,7 +8119,7 @@
       </c>
       <c r="G25" s="19">
         <f>INT(VLOOKUP(Z25,主线配置!R:AF,12,FALSE)/VLOOKUP(1,映射表!B:C,2,FALSE)*VLOOKUP(X25,映射表!B:C,2,FALSE))</f>
-        <v>535</v>
+        <v>894</v>
       </c>
       <c r="H25" s="19">
         <v>0</v>
@@ -7633,7 +8211,7 @@
       </c>
       <c r="G26" s="19">
         <f>INT(VLOOKUP(Z26,主线配置!R:AF,12,FALSE)/VLOOKUP(1,映射表!B:C,2,FALSE)*VLOOKUP(X26,映射表!B:C,2,FALSE))</f>
-        <v>600</v>
+        <v>1003</v>
       </c>
       <c r="H26" s="19">
         <v>0</v>
@@ -7725,7 +8303,7 @@
       </c>
       <c r="G27" s="19">
         <f>INT(VLOOKUP(Z27,主线配置!R:AF,12,FALSE)/VLOOKUP(1,映射表!B:C,2,FALSE)*VLOOKUP(X27,映射表!B:C,2,FALSE))</f>
-        <v>669</v>
+        <v>1118</v>
       </c>
       <c r="H27" s="19">
         <v>0</v>
@@ -7817,7 +8395,7 @@
       </c>
       <c r="G28" s="19">
         <f>INT(VLOOKUP(Z28,主线配置!R:AF,12,FALSE)/VLOOKUP(1,映射表!B:C,2,FALSE)*VLOOKUP(X28,映射表!B:C,2,FALSE))</f>
-        <v>741</v>
+        <v>1238</v>
       </c>
       <c r="H28" s="19">
         <v>0</v>
@@ -7909,7 +8487,7 @@
       </c>
       <c r="G29" s="19">
         <f>INT(VLOOKUP(Z29,主线配置!R:AF,12,FALSE)/VLOOKUP(1,映射表!B:C,2,FALSE)*VLOOKUP(X29,映射表!B:C,2,FALSE))</f>
-        <v>817</v>
+        <v>1364</v>
       </c>
       <c r="H29" s="19">
         <v>0</v>
@@ -8001,7 +8579,7 @@
       </c>
       <c r="G30" s="19">
         <f>INT(VLOOKUP(Z30,主线配置!R:AF,12,FALSE)/VLOOKUP(1,映射表!B:C,2,FALSE)*VLOOKUP(X30,映射表!B:C,2,FALSE))</f>
-        <v>895</v>
+        <v>1495</v>
       </c>
       <c r="H30" s="19">
         <v>0</v>
@@ -8093,7 +8671,7 @@
       </c>
       <c r="G31" s="19">
         <f>INT(VLOOKUP(Z31,主线配置!R:AF,12,FALSE)/VLOOKUP(1,映射表!B:C,2,FALSE)*VLOOKUP(X31,映射表!B:C,2,FALSE))</f>
-        <v>976</v>
+        <v>1631</v>
       </c>
       <c r="H31" s="19">
         <v>0</v>
@@ -8185,7 +8763,7 @@
       </c>
       <c r="G32" s="19">
         <f>INT(VLOOKUP(Z32,主线配置!R:AF,12,FALSE)/VLOOKUP(1,映射表!B:C,2,FALSE)*VLOOKUP(X32,映射表!B:C,2,FALSE))</f>
-        <v>1062</v>
+        <v>1773</v>
       </c>
       <c r="H32" s="19">
         <v>0</v>
@@ -8277,7 +8855,7 @@
       </c>
       <c r="G33" s="19">
         <f>INT(VLOOKUP(Z33,主线配置!R:AF,12,FALSE)/VLOOKUP(1,映射表!B:C,2,FALSE)*VLOOKUP(X33,映射表!B:C,2,FALSE))</f>
-        <v>1150</v>
+        <v>1920</v>
       </c>
       <c r="H33" s="19">
         <v>0</v>
@@ -8369,7 +8947,7 @@
       </c>
       <c r="G34" s="19">
         <f>INT(VLOOKUP(Z34,主线配置!R:AF,12,FALSE)/VLOOKUP(1,映射表!B:C,2,FALSE)*VLOOKUP(X34,映射表!B:C,2,FALSE))</f>
-        <v>1226</v>
+        <v>2048</v>
       </c>
       <c r="H34" s="19">
         <v>0</v>
@@ -8461,7 +9039,7 @@
       </c>
       <c r="G35" s="19">
         <f>INT(VLOOKUP(Z35,主线配置!R:AF,12,FALSE)/VLOOKUP(1,映射表!B:C,2,FALSE)*VLOOKUP(X35,映射表!B:C,2,FALSE))</f>
-        <v>1356</v>
+        <v>2265</v>
       </c>
       <c r="H35" s="19">
         <v>0</v>
@@ -8553,7 +9131,7 @@
       </c>
       <c r="G36" s="19">
         <f>INT(VLOOKUP(Z36,主线配置!R:AF,12,FALSE)/VLOOKUP(1,映射表!B:C,2,FALSE)*VLOOKUP(X36,映射表!B:C,2,FALSE))</f>
-        <v>1491</v>
+        <v>2490</v>
       </c>
       <c r="H36" s="19">
         <v>0</v>
@@ -8645,7 +9223,7 @@
       </c>
       <c r="G37" s="19">
         <f>INT(VLOOKUP(Z37,主线配置!R:AF,12,FALSE)/VLOOKUP(1,映射表!B:C,2,FALSE)*VLOOKUP(X37,映射表!B:C,2,FALSE))</f>
-        <v>1629</v>
+        <v>2720</v>
       </c>
       <c r="H37" s="19">
         <v>0</v>
@@ -8737,7 +9315,7 @@
       </c>
       <c r="G38" s="19">
         <f>INT(VLOOKUP(Z38,主线配置!R:AF,12,FALSE)/VLOOKUP(1,映射表!B:C,2,FALSE)*VLOOKUP(X38,映射表!B:C,2,FALSE))</f>
-        <v>1771</v>
+        <v>2958</v>
       </c>
       <c r="H38" s="19">
         <v>0</v>
@@ -8829,7 +9407,7 @@
       </c>
       <c r="G39" s="19">
         <f>INT(VLOOKUP(Z39,主线配置!R:AF,12,FALSE)/VLOOKUP(1,映射表!B:C,2,FALSE)*VLOOKUP(X39,映射表!B:C,2,FALSE))</f>
-        <v>1961</v>
+        <v>3275</v>
       </c>
       <c r="H39" s="19">
         <v>0</v>
@@ -8921,7 +9499,7 @@
       </c>
       <c r="G40" s="19">
         <f>INT(VLOOKUP(Z40,主线配置!R:AF,12,FALSE)/VLOOKUP(1,映射表!B:C,2,FALSE)*VLOOKUP(X40,映射表!B:C,2,FALSE))</f>
-        <v>2161</v>
+        <v>3608</v>
       </c>
       <c r="H40" s="19">
         <v>0</v>
@@ -9013,7 +9591,7 @@
       </c>
       <c r="G41" s="19">
         <f>INT(VLOOKUP(Z41,主线配置!R:AF,12,FALSE)/VLOOKUP(1,映射表!B:C,2,FALSE)*VLOOKUP(X41,映射表!B:C,2,FALSE))</f>
-        <v>2371</v>
+        <v>3959</v>
       </c>
       <c r="H41" s="19">
         <v>0</v>
@@ -9105,7 +9683,7 @@
       </c>
       <c r="G42" s="19">
         <f>INT(VLOOKUP(Z42,主线配置!R:AF,12,FALSE)/VLOOKUP(1,映射表!B:C,2,FALSE)*VLOOKUP(X42,映射表!B:C,2,FALSE))</f>
-        <v>2591</v>
+        <v>4326</v>
       </c>
       <c r="H42" s="19">
         <v>0</v>
@@ -9197,7 +9775,7 @@
       </c>
       <c r="G43" s="19">
         <f>INT(VLOOKUP(Z43,主线配置!R:AF,12,FALSE)/VLOOKUP(1,映射表!B:C,2,FALSE)*VLOOKUP(X43,映射表!B:C,2,FALSE))</f>
-        <v>2820</v>
+        <v>4709</v>
       </c>
       <c r="H43" s="19">
         <v>0</v>
@@ -9289,7 +9867,7 @@
       </c>
       <c r="G44" s="19">
         <f>INT(VLOOKUP(Z44,主线配置!R:AF,12,FALSE)/VLOOKUP(1,映射表!B:C,2,FALSE)*VLOOKUP(X44,映射表!B:C,2,FALSE))</f>
-        <v>3080</v>
+        <v>5142</v>
       </c>
       <c r="H44" s="19">
         <v>0</v>
@@ -9381,7 +9959,7 @@
       </c>
       <c r="G45" s="19">
         <f>INT(VLOOKUP(Z45,主线配置!R:AF,12,FALSE)/VLOOKUP(1,映射表!B:C,2,FALSE)*VLOOKUP(X45,映射表!B:C,2,FALSE))</f>
-        <v>3515</v>
+        <v>5869</v>
       </c>
       <c r="H45" s="19">
         <v>0</v>
@@ -9473,7 +10051,7 @@
       </c>
       <c r="G46" s="19">
         <f>INT(VLOOKUP(Z46,主线配置!R:AF,12,FALSE)/VLOOKUP(1,映射表!B:C,2,FALSE)*VLOOKUP(X46,映射表!B:C,2,FALSE))</f>
-        <v>3975</v>
+        <v>6637</v>
       </c>
       <c r="H46" s="19">
         <v>0</v>
@@ -9565,7 +10143,7 @@
       </c>
       <c r="G47" s="19">
         <f>INT(VLOOKUP(Z47,主线配置!R:AF,12,FALSE)/VLOOKUP(1,映射表!B:C,2,FALSE)*VLOOKUP(X47,映射表!B:C,2,FALSE))</f>
-        <v>4459</v>
+        <v>7445</v>
       </c>
       <c r="H47" s="19">
         <v>0</v>
@@ -9657,7 +10235,7 @@
       </c>
       <c r="G48" s="19">
         <f>INT(VLOOKUP(Z48,主线配置!R:AF,12,FALSE)/VLOOKUP(1,映射表!B:C,2,FALSE)*VLOOKUP(X48,映射表!B:C,2,FALSE))</f>
-        <v>4967</v>
+        <v>8293</v>
       </c>
       <c r="H48" s="19">
         <v>0</v>
@@ -9749,7 +10327,7 @@
       </c>
       <c r="G49" s="19">
         <f>INT(VLOOKUP(Z49,主线配置!R:AF,12,FALSE)/VLOOKUP(1,映射表!B:C,2,FALSE)*VLOOKUP(X49,映射表!B:C,2,FALSE))</f>
-        <v>5409</v>
+        <v>9030</v>
       </c>
       <c r="H49" s="19">
         <v>0</v>
@@ -9841,7 +10419,7 @@
       </c>
       <c r="G50" s="19">
         <f>INT(VLOOKUP(Z50,主线配置!R:AF,12,FALSE)/VLOOKUP(1,映射表!B:C,2,FALSE)*VLOOKUP(X50,映射表!B:C,2,FALSE))</f>
-        <v>5861</v>
+        <v>9786</v>
       </c>
       <c r="H50" s="19">
         <v>0</v>
@@ -9933,7 +10511,7 @@
       </c>
       <c r="G51" s="19">
         <f>INT(VLOOKUP(Z51,主线配置!R:AF,12,FALSE)/VLOOKUP(1,映射表!B:C,2,FALSE)*VLOOKUP(X51,映射表!B:C,2,FALSE))</f>
-        <v>6326</v>
+        <v>10561</v>
       </c>
       <c r="H51" s="19">
         <v>0</v>
@@ -10025,7 +10603,7 @@
       </c>
       <c r="G52" s="19">
         <f>INT(VLOOKUP(Z52,主线配置!R:AF,12,FALSE)/VLOOKUP(1,映射表!B:C,2,FALSE)*VLOOKUP(X52,映射表!B:C,2,FALSE))</f>
-        <v>6801</v>
+        <v>11355</v>
       </c>
       <c r="H52" s="19">
         <v>0</v>
@@ -10117,7 +10695,7 @@
       </c>
       <c r="G53" s="19">
         <f>INT(VLOOKUP(Z53,主线配置!R:AF,12,FALSE)/VLOOKUP(1,映射表!B:C,2,FALSE)*VLOOKUP(X53,映射表!B:C,2,FALSE))</f>
-        <v>7289</v>
+        <v>12169</v>
       </c>
       <c r="H53" s="19">
         <v>0</v>
@@ -10209,7 +10787,7 @@
       </c>
       <c r="G54" s="19">
         <f>INT(VLOOKUP(Z54,主线配置!R:AF,12,FALSE)/VLOOKUP(1,映射表!B:C,2,FALSE)*VLOOKUP(X54,映射表!B:C,2,FALSE))</f>
-        <v>7673</v>
+        <v>12810</v>
       </c>
       <c r="H54" s="19">
         <v>0</v>
@@ -10301,7 +10879,7 @@
       </c>
       <c r="G55" s="19">
         <f>INT(VLOOKUP(Z55,主线配置!R:AF,12,FALSE)/VLOOKUP(1,映射表!B:C,2,FALSE)*VLOOKUP(X55,映射表!B:C,2,FALSE))</f>
-        <v>8441</v>
+        <v>14092</v>
       </c>
       <c r="H55" s="19">
         <v>0</v>
@@ -10393,7 +10971,7 @@
       </c>
       <c r="G56" s="19">
         <f>INT(VLOOKUP(Z56,主线配置!R:AF,12,FALSE)/VLOOKUP(1,映射表!B:C,2,FALSE)*VLOOKUP(X56,映射表!B:C,2,FALSE))</f>
-        <v>9209</v>
+        <v>15374</v>
       </c>
       <c r="H56" s="19">
         <v>0</v>
@@ -10485,7 +11063,7 @@
       </c>
       <c r="G57" s="19">
         <f>INT(VLOOKUP(Z57,主线配置!R:AF,12,FALSE)/VLOOKUP(1,映射表!B:C,2,FALSE)*VLOOKUP(X57,映射表!B:C,2,FALSE))</f>
-        <v>9977</v>
+        <v>16656</v>
       </c>
       <c r="H57" s="19">
         <v>0</v>
@@ -10577,7 +11155,7 @@
       </c>
       <c r="G58" s="19">
         <f>INT(VLOOKUP(Z58,主线配置!R:AF,12,FALSE)/VLOOKUP(1,映射表!B:C,2,FALSE)*VLOOKUP(X58,映射表!B:C,2,FALSE))</f>
-        <v>10745</v>
+        <v>17938</v>
       </c>
       <c r="H58" s="19">
         <v>0</v>
@@ -10669,7 +11247,7 @@
       </c>
       <c r="G59" s="19">
         <f>INT(VLOOKUP(Z59,主线配置!R:AF,12,FALSE)/VLOOKUP(1,映射表!B:C,2,FALSE)*VLOOKUP(X59,映射表!B:C,2,FALSE))</f>
-        <v>11512</v>
+        <v>19220</v>
       </c>
       <c r="H59" s="19">
         <v>0</v>
@@ -10761,7 +11339,7 @@
       </c>
       <c r="G60" s="19">
         <f>INT(VLOOKUP(Z60,主线配置!R:AF,12,FALSE)/VLOOKUP(1,映射表!B:C,2,FALSE)*VLOOKUP(X60,映射表!B:C,2,FALSE))</f>
-        <v>12280</v>
+        <v>20502</v>
       </c>
       <c r="H60" s="19">
         <v>0</v>
@@ -10853,7 +11431,7 @@
       </c>
       <c r="G61" s="19">
         <f>INT(VLOOKUP(Z61,主线配置!R:AF,12,FALSE)/VLOOKUP(1,映射表!B:C,2,FALSE)*VLOOKUP(X61,映射表!B:C,2,FALSE))</f>
-        <v>13048</v>
+        <v>21784</v>
       </c>
       <c r="H61" s="19">
         <v>0</v>
@@ -10945,7 +11523,7 @@
       </c>
       <c r="G62" s="19">
         <f>INT(VLOOKUP(Z62,主线配置!R:AF,12,FALSE)/VLOOKUP(1,映射表!B:C,2,FALSE)*VLOOKUP(X62,映射表!B:C,2,FALSE))</f>
-        <v>13816</v>
+        <v>23066</v>
       </c>
       <c r="H62" s="19">
         <v>0</v>
@@ -11037,7 +11615,7 @@
       </c>
       <c r="G63" s="19">
         <f>INT(VLOOKUP(Z63,主线配置!R:AF,12,FALSE)/VLOOKUP(1,映射表!B:C,2,FALSE)*VLOOKUP(X63,映射表!B:C,2,FALSE))</f>
-        <v>14584</v>
+        <v>24348</v>
       </c>
       <c r="H63" s="19">
         <v>0</v>
@@ -11129,7 +11707,7 @@
       </c>
       <c r="G64" s="19">
         <f>INT(VLOOKUP(Z64,主线配置!R:AF,12,FALSE)/VLOOKUP(1,映射表!B:C,2,FALSE)*VLOOKUP(X64,映射表!B:C,2,FALSE))</f>
-        <v>15353</v>
+        <v>25631</v>
       </c>
       <c r="H64" s="19">
         <v>0</v>
@@ -11221,7 +11799,7 @@
       </c>
       <c r="G65" s="19">
         <f>INT(VLOOKUP(Z65,主线配置!R:AF,12,FALSE)/VLOOKUP(1,映射表!B:C,2,FALSE)*VLOOKUP(X65,映射表!B:C,2,FALSE))</f>
-        <v>16889</v>
+        <v>28196</v>
       </c>
       <c r="H65" s="19">
         <v>0</v>
@@ -11313,7 +11891,7 @@
       </c>
       <c r="G66" s="19">
         <f>INT(VLOOKUP(Z66,主线配置!R:AF,12,FALSE)/VLOOKUP(1,映射表!B:C,2,FALSE)*VLOOKUP(X66,映射表!B:C,2,FALSE))</f>
-        <v>18426</v>
+        <v>30761</v>
       </c>
       <c r="H66" s="19">
         <v>0</v>
@@ -11405,7 +11983,7 @@
       </c>
       <c r="G67" s="19">
         <f>INT(VLOOKUP(Z67,主线配置!R:AF,12,FALSE)/VLOOKUP(1,映射表!B:C,2,FALSE)*VLOOKUP(X67,映射表!B:C,2,FALSE))</f>
-        <v>19962</v>
+        <v>33326</v>
       </c>
       <c r="H67" s="19">
         <v>0</v>
@@ -11497,7 +12075,7 @@
       </c>
       <c r="G68" s="19">
         <f>INT(VLOOKUP(Z68,主线配置!R:AF,12,FALSE)/VLOOKUP(1,映射表!B:C,2,FALSE)*VLOOKUP(X68,映射表!B:C,2,FALSE))</f>
-        <v>21499</v>
+        <v>35892</v>
       </c>
       <c r="H68" s="19">
         <v>0</v>
@@ -11589,7 +12167,7 @@
       </c>
       <c r="G69" s="19">
         <f>INT(VLOOKUP(Z69,主线配置!R:AF,12,FALSE)/VLOOKUP(1,映射表!B:C,2,FALSE)*VLOOKUP(X69,映射表!B:C,2,FALSE))</f>
-        <v>23036</v>
+        <v>38457</v>
       </c>
       <c r="H69" s="19">
         <v>0</v>
@@ -11681,7 +12259,7 @@
       </c>
       <c r="G70" s="19">
         <f>INT(VLOOKUP(Z70,主线配置!R:AF,12,FALSE)/VLOOKUP(1,映射表!B:C,2,FALSE)*VLOOKUP(X70,映射表!B:C,2,FALSE))</f>
-        <v>24572</v>
+        <v>41022</v>
       </c>
       <c r="H70" s="19">
         <v>0</v>
@@ -11773,7 +12351,7 @@
       </c>
       <c r="G71" s="19">
         <f>INT(VLOOKUP(Z71,主线配置!R:AF,12,FALSE)/VLOOKUP(1,映射表!B:C,2,FALSE)*VLOOKUP(X71,映射表!B:C,2,FALSE))</f>
-        <v>26109</v>
+        <v>43588</v>
       </c>
       <c r="H71" s="19">
         <v>0</v>
@@ -11865,7 +12443,7 @@
       </c>
       <c r="G72" s="19">
         <f>INT(VLOOKUP(Z72,主线配置!R:AF,12,FALSE)/VLOOKUP(1,映射表!B:C,2,FALSE)*VLOOKUP(X72,映射表!B:C,2,FALSE))</f>
-        <v>27646</v>
+        <v>46153</v>
       </c>
       <c r="H72" s="19">
         <v>0</v>
@@ -11957,7 +12535,7 @@
       </c>
       <c r="G73" s="19">
         <f>INT(VLOOKUP(Z73,主线配置!R:AF,12,FALSE)/VLOOKUP(1,映射表!B:C,2,FALSE)*VLOOKUP(X73,映射表!B:C,2,FALSE))</f>
-        <v>29182</v>
+        <v>48718</v>
       </c>
       <c r="H73" s="19">
         <v>0</v>
@@ -12049,7 +12627,7 @@
       </c>
       <c r="G74" s="19">
         <f>INT(VLOOKUP(Z74,主线配置!R:AF,12,FALSE)/VLOOKUP(1,映射表!B:C,2,FALSE)*VLOOKUP(X74,映射表!B:C,2,FALSE))</f>
-        <v>30719</v>
+        <v>51284</v>
       </c>
       <c r="H74" s="19">
         <v>0</v>
@@ -12141,7 +12719,7 @@
       </c>
       <c r="G75" s="19">
         <f>INT(VLOOKUP(Z75,主线配置!R:AF,12,FALSE)/VLOOKUP(1,映射表!B:C,2,FALSE)*VLOOKUP(X75,映射表!B:C,2,FALSE))</f>
-        <v>33793</v>
+        <v>56415</v>
       </c>
       <c r="H75" s="19">
         <v>0</v>
@@ -12233,7 +12811,7 @@
       </c>
       <c r="G76" s="19">
         <f>INT(VLOOKUP(Z76,主线配置!R:AF,12,FALSE)/VLOOKUP(1,映射表!B:C,2,FALSE)*VLOOKUP(X76,映射表!B:C,2,FALSE))</f>
-        <v>36867</v>
+        <v>61547</v>
       </c>
       <c r="H76" s="19">
         <v>0</v>
@@ -12325,7 +12903,7 @@
       </c>
       <c r="G77" s="19">
         <f>INT(VLOOKUP(Z77,主线配置!R:AF,12,FALSE)/VLOOKUP(1,映射表!B:C,2,FALSE)*VLOOKUP(X77,映射表!B:C,2,FALSE))</f>
-        <v>39940</v>
+        <v>66678</v>
       </c>
       <c r="H77" s="19">
         <v>0</v>
@@ -12417,7 +12995,7 @@
       </c>
       <c r="G78" s="19">
         <f>INT(VLOOKUP(Z78,主线配置!R:AF,12,FALSE)/VLOOKUP(1,映射表!B:C,2,FALSE)*VLOOKUP(X78,映射表!B:C,2,FALSE))</f>
-        <v>43014</v>
+        <v>71810</v>
       </c>
       <c r="H78" s="19">
         <v>0</v>
@@ -12509,7 +13087,7 @@
       </c>
       <c r="G79" s="19">
         <f>INT(VLOOKUP(Z79,主线配置!R:AF,12,FALSE)/VLOOKUP(1,映射表!B:C,2,FALSE)*VLOOKUP(X79,映射表!B:C,2,FALSE))</f>
-        <v>46089</v>
+        <v>76942</v>
       </c>
       <c r="H79" s="19">
         <v>0</v>
@@ -12601,7 +13179,7 @@
       </c>
       <c r="G80" s="19">
         <f>INT(VLOOKUP(Z80,主线配置!R:AF,12,FALSE)/VLOOKUP(1,映射表!B:C,2,FALSE)*VLOOKUP(X80,映射表!B:C,2,FALSE))</f>
-        <v>49162</v>
+        <v>82073</v>
       </c>
       <c r="H80" s="19">
         <v>0</v>
@@ -12693,7 +13271,7 @@
       </c>
       <c r="G81" s="19">
         <f>INT(VLOOKUP(Z81,主线配置!R:AF,12,FALSE)/VLOOKUP(1,映射表!B:C,2,FALSE)*VLOOKUP(X81,映射表!B:C,2,FALSE))</f>
-        <v>52236</v>
+        <v>87205</v>
       </c>
       <c r="H81" s="19">
         <v>0</v>
@@ -12785,7 +13363,7 @@
       </c>
       <c r="G82" s="19">
         <f>INT(VLOOKUP(Z82,主线配置!R:AF,12,FALSE)/VLOOKUP(1,映射表!B:C,2,FALSE)*VLOOKUP(X82,映射表!B:C,2,FALSE))</f>
-        <v>55310</v>
+        <v>92336</v>
       </c>
       <c r="H82" s="19">
         <v>0</v>
@@ -12877,7 +13455,7 @@
       </c>
       <c r="G83" s="19">
         <f>INT(VLOOKUP(Z83,主线配置!R:AF,12,FALSE)/VLOOKUP(1,映射表!B:C,2,FALSE)*VLOOKUP(X83,映射表!B:C,2,FALSE))</f>
-        <v>58384</v>
+        <v>97468</v>
       </c>
       <c r="H83" s="19">
         <v>0</v>
@@ -12969,7 +13547,7 @@
       </c>
       <c r="G84" s="19">
         <f>INT(VLOOKUP(Z84,主线配置!R:AF,12,FALSE)/VLOOKUP(1,映射表!B:C,2,FALSE)*VLOOKUP(X84,映射表!B:C,2,FALSE))</f>
-        <v>61458</v>
+        <v>102600</v>
       </c>
       <c r="H84" s="19">
         <v>0</v>
@@ -13061,7 +13639,7 @@
       </c>
       <c r="G85" s="19">
         <f>INT(VLOOKUP(Z85,主线配置!R:AF,12,FALSE)/VLOOKUP(1,映射表!B:C,2,FALSE)*VLOOKUP(X85,映射表!B:C,2,FALSE))</f>
-        <v>67607</v>
+        <v>112865</v>
       </c>
       <c r="H85" s="19">
         <v>0</v>
@@ -13153,7 +13731,7 @@
       </c>
       <c r="G86" s="19">
         <f>INT(VLOOKUP(Z86,主线配置!R:AF,12,FALSE)/VLOOKUP(1,映射表!B:C,2,FALSE)*VLOOKUP(X86,映射表!B:C,2,FALSE))</f>
-        <v>73756</v>
+        <v>123130</v>
       </c>
       <c r="H86" s="19">
         <v>0</v>
@@ -13245,7 +13823,7 @@
       </c>
       <c r="G87" s="19">
         <f>INT(VLOOKUP(Z87,主线配置!R:AF,12,FALSE)/VLOOKUP(1,映射表!B:C,2,FALSE)*VLOOKUP(X87,映射表!B:C,2,FALSE))</f>
-        <v>79904</v>
+        <v>133395</v>
       </c>
       <c r="H87" s="19">
         <v>0</v>
@@ -13337,7 +13915,7 @@
       </c>
       <c r="G88" s="19">
         <f>INT(VLOOKUP(Z88,主线配置!R:AF,12,FALSE)/VLOOKUP(1,映射表!B:C,2,FALSE)*VLOOKUP(X88,映射表!B:C,2,FALSE))</f>
-        <v>86053</v>
+        <v>143660</v>
       </c>
       <c r="H88" s="19">
         <v>0</v>
@@ -13429,7 +14007,7 @@
       </c>
       <c r="G89" s="19">
         <f>INT(VLOOKUP(Z89,主线配置!R:AF,12,FALSE)/VLOOKUP(1,映射表!B:C,2,FALSE)*VLOOKUP(X89,映射表!B:C,2,FALSE))</f>
-        <v>92202</v>
+        <v>153925</v>
       </c>
       <c r="H89" s="19">
         <v>0</v>
@@ -13521,7 +14099,7 @@
       </c>
       <c r="G90" s="19">
         <f>INT(VLOOKUP(Z90,主线配置!R:AF,12,FALSE)/VLOOKUP(1,映射表!B:C,2,FALSE)*VLOOKUP(X90,映射表!B:C,2,FALSE))</f>
-        <v>98351</v>
+        <v>164190</v>
       </c>
       <c r="H90" s="19">
         <v>0</v>
@@ -13613,7 +14191,7 @@
       </c>
       <c r="G91" s="19">
         <f>INT(VLOOKUP(Z91,主线配置!R:AF,12,FALSE)/VLOOKUP(1,映射表!B:C,2,FALSE)*VLOOKUP(X91,映射表!B:C,2,FALSE))</f>
-        <v>104500</v>
+        <v>174455</v>
       </c>
       <c r="H91" s="19">
         <v>0</v>
@@ -13705,7 +14283,7 @@
       </c>
       <c r="G92" s="19">
         <f>INT(VLOOKUP(Z92,主线配置!R:AF,12,FALSE)/VLOOKUP(1,映射表!B:C,2,FALSE)*VLOOKUP(X92,映射表!B:C,2,FALSE))</f>
-        <v>110649</v>
+        <v>184720</v>
       </c>
       <c r="H92" s="19">
         <v>0</v>
@@ -13797,7 +14375,7 @@
       </c>
       <c r="G93" s="19">
         <f>INT(VLOOKUP(Z93,主线配置!R:AF,12,FALSE)/VLOOKUP(1,映射表!B:C,2,FALSE)*VLOOKUP(X93,映射表!B:C,2,FALSE))</f>
-        <v>116797</v>
+        <v>194985</v>
       </c>
       <c r="H93" s="19">
         <v>0</v>
@@ -13889,7 +14467,7 @@
       </c>
       <c r="G94" s="19">
         <f>INT(VLOOKUP(Z94,主线配置!R:AF,12,FALSE)/VLOOKUP(1,映射表!B:C,2,FALSE)*VLOOKUP(X94,映射表!B:C,2,FALSE))</f>
-        <v>122947</v>
+        <v>205251</v>
       </c>
       <c r="H94" s="19">
         <v>0</v>
@@ -13981,7 +14559,7 @@
       </c>
       <c r="G95" s="19">
         <f>INT(VLOOKUP(Z95,主线配置!R:AF,12,FALSE)/VLOOKUP(1,映射表!B:C,2,FALSE)*VLOOKUP(X95,映射表!B:C,2,FALSE))</f>
-        <v>135248</v>
+        <v>225786</v>
       </c>
       <c r="H95" s="19">
         <v>0</v>
@@ -14073,7 +14651,7 @@
       </c>
       <c r="G96" s="19">
         <f>INT(VLOOKUP(Z96,主线配置!R:AF,12,FALSE)/VLOOKUP(1,映射表!B:C,2,FALSE)*VLOOKUP(X96,映射表!B:C,2,FALSE))</f>
-        <v>147549</v>
+        <v>246322</v>
       </c>
       <c r="H96" s="19">
         <v>0</v>
@@ -14165,7 +14743,7 @@
       </c>
       <c r="G97" s="19">
         <f>INT(VLOOKUP(Z97,主线配置!R:AF,12,FALSE)/VLOOKUP(1,映射表!B:C,2,FALSE)*VLOOKUP(X97,映射表!B:C,2,FALSE))</f>
-        <v>159850</v>
+        <v>266858</v>
       </c>
       <c r="H97" s="19">
         <v>0</v>
@@ -14257,7 +14835,7 @@
       </c>
       <c r="G98" s="19">
         <f>INT(VLOOKUP(Z98,主线配置!R:AF,12,FALSE)/VLOOKUP(1,映射表!B:C,2,FALSE)*VLOOKUP(X98,映射表!B:C,2,FALSE))</f>
-        <v>172151</v>
+        <v>287394</v>
       </c>
       <c r="H98" s="19">
         <v>0</v>
@@ -14349,7 +14927,7 @@
       </c>
       <c r="G99" s="19">
         <f>INT(VLOOKUP(Z99,主线配置!R:AF,12,FALSE)/VLOOKUP(1,映射表!B:C,2,FALSE)*VLOOKUP(X99,映射表!B:C,2,FALSE))</f>
-        <v>184453</v>
+        <v>307930</v>
       </c>
       <c r="H99" s="19">
         <v>0</v>
@@ -14441,7 +15019,7 @@
       </c>
       <c r="G100" s="19">
         <f>INT(VLOOKUP(Z100,主线配置!R:AF,12,FALSE)/VLOOKUP(1,映射表!B:C,2,FALSE)*VLOOKUP(X100,映射表!B:C,2,FALSE))</f>
-        <v>196754</v>
+        <v>328466</v>
       </c>
       <c r="H100" s="19">
         <v>0</v>
@@ -35901,7 +36479,7 @@
         <v>1</v>
       </c>
       <c r="Y3" s="18" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="2:26" x14ac:dyDescent="0.15">
@@ -35937,10 +36515,10 @@
         <v>2</v>
       </c>
       <c r="Y4" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="Z4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="5" spans="2:26" x14ac:dyDescent="0.15">
@@ -35976,10 +36554,10 @@
         <v>3</v>
       </c>
       <c r="Y5" s="17" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="Z5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.15">
@@ -36015,10 +36593,10 @@
         <v>4</v>
       </c>
       <c r="Y6" s="17" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="Z6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.15">
@@ -36054,10 +36632,10 @@
         <v>5</v>
       </c>
       <c r="Y7" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Z7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="2:26" x14ac:dyDescent="0.15">
@@ -36093,10 +36671,10 @@
         <v>6</v>
       </c>
       <c r="Y8" s="17" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="Z8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="9" spans="2:26" x14ac:dyDescent="0.15">
@@ -36126,10 +36704,10 @@
         <v>7</v>
       </c>
       <c r="Y9" s="17" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="Z9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="10" spans="2:26" x14ac:dyDescent="0.15">
@@ -36159,10 +36737,10 @@
         <v>8</v>
       </c>
       <c r="Y10" s="17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="Z10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="11" spans="2:26" x14ac:dyDescent="0.15">
@@ -36192,10 +36770,10 @@
         <v>9</v>
       </c>
       <c r="Y11" s="17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="Z11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="12" spans="2:26" x14ac:dyDescent="0.15">
@@ -36225,10 +36803,10 @@
         <v>10</v>
       </c>
       <c r="Y12" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="Z12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="13" spans="2:26" x14ac:dyDescent="0.15">
@@ -36258,7 +36836,7 @@
         <v>11</v>
       </c>
       <c r="Y13" s="17" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="14" spans="2:26" x14ac:dyDescent="0.15">
@@ -36288,7 +36866,7 @@
         <v>12</v>
       </c>
       <c r="Y14" s="17" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="15" spans="2:26" x14ac:dyDescent="0.15">
@@ -36318,7 +36896,7 @@
         <v>13</v>
       </c>
       <c r="Y15" s="17" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="16" spans="2:26" x14ac:dyDescent="0.15">
@@ -36348,7 +36926,7 @@
         <v>14</v>
       </c>
       <c r="Y16" s="17" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="17" spans="2:25" x14ac:dyDescent="0.15">
@@ -36378,7 +36956,7 @@
         <v>15</v>
       </c>
       <c r="Y17" s="17" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="18" spans="2:25" x14ac:dyDescent="0.15">
@@ -36408,7 +36986,7 @@
         <v>16</v>
       </c>
       <c r="Y18" s="17" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="19" spans="2:25" x14ac:dyDescent="0.15">
@@ -36438,7 +37016,7 @@
         <v>17</v>
       </c>
       <c r="Y19" s="17" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="20" spans="2:25" x14ac:dyDescent="0.15">
@@ -36468,7 +37046,7 @@
         <v>18</v>
       </c>
       <c r="Y20" s="17" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="21" spans="2:25" x14ac:dyDescent="0.15">
@@ -36492,7 +37070,7 @@
         <v>19</v>
       </c>
       <c r="Y21" s="17" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="22" spans="2:25" x14ac:dyDescent="0.15">
@@ -36516,7 +37094,7 @@
         <v>20</v>
       </c>
       <c r="Y22" s="17" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="23" spans="2:25" x14ac:dyDescent="0.15">
@@ -36540,7 +37118,7 @@
         <v>21</v>
       </c>
       <c r="Y23" s="17" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="24" spans="2:25" x14ac:dyDescent="0.15">
@@ -36564,7 +37142,7 @@
         <v>22</v>
       </c>
       <c r="Y24" s="17" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="25" spans="2:25" x14ac:dyDescent="0.15">
@@ -36588,7 +37166,7 @@
         <v>23</v>
       </c>
       <c r="Y25" s="17" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="26" spans="2:25" x14ac:dyDescent="0.15">
@@ -36612,7 +37190,7 @@
         <v>24</v>
       </c>
       <c r="Y26" s="17" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="27" spans="2:25" x14ac:dyDescent="0.15">
@@ -36636,7 +37214,7 @@
         <v>25</v>
       </c>
       <c r="Y27" s="17" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="28" spans="2:25" x14ac:dyDescent="0.15">
@@ -36660,7 +37238,7 @@
         <v>26</v>
       </c>
       <c r="Y28" s="17" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="29" spans="2:25" x14ac:dyDescent="0.15">
@@ -36684,7 +37262,7 @@
         <v>27</v>
       </c>
       <c r="Y29" s="17" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="30" spans="2:25" x14ac:dyDescent="0.15">
@@ -36708,7 +37286,7 @@
         <v>28</v>
       </c>
       <c r="Y30" s="17" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="31" spans="2:25" x14ac:dyDescent="0.15">
@@ -36732,7 +37310,7 @@
         <v>29</v>
       </c>
       <c r="Y31" s="17" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="32" spans="2:25" x14ac:dyDescent="0.15">
